--- a/scripts Stata/Atual/BaseDadosCompiladaSumLegNeLegCPC Rev Gui 3.xlsx
+++ b/scripts Stata/Atual/BaseDadosCompiladaSumLegNeLegCPC Rev Gui 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98F38D5-31B2-4E96-9D22-7CDD26F5C389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4B46B-A78E-4C12-9178-389FC14408A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,12 +713,13 @@
   <dimension ref="A1:AA321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/scripts Stata/Atual/BaseDadosCompiladaSumLegNeLegCPC Rev Gui 3.xlsx
+++ b/scripts Stata/Atual/BaseDadosCompiladaSumLegNeLegCPC Rev Gui 3.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4B46B-A78E-4C12-9178-389FC14408A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03C150A-3620-44AC-A4F8-AA9A22C3E115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DadosTeses" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
+    <sheet name="DadosTeses" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -254,6 +258,18 @@
   <si>
     <t>LegCPC Medio</t>
   </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>(vazio)</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Média de LegNE2</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -396,6 +412,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,6 +429,1399 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Regis" refreshedDate="43949.018141203705" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="321" xr:uid="{0FC360A3-ACCB-4B9E-A61D-F0E7F9A2732A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:D1048576" sheet="DadosTeses"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Ano" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2010" maxValue="2017" count="9">
+        <n v="2017"/>
+        <n v="2016"/>
+        <n v="2015"/>
+        <n v="2014"/>
+        <n v="2013"/>
+        <n v="2012"/>
+        <n v="2011"/>
+        <n v="2010"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="LegNE" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="58"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="321">
+  <r>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{841A4905-93A7-4984-996E-8394C180D89A}" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de LegNE2" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,11 +2120,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52C0FD9-2D7E-48AE-8C6C-5C85F26DF8D8}">
+  <dimension ref="A3:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="16">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="16">
+        <v>34.325000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B6" s="16">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="16">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="16">
+        <v>32.225000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="16">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="16">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="16">
+        <v>36.274999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="16">
+        <v>33.303125000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
